--- a/datasets/happiness + reisen.xlsx
+++ b/datasets/happiness + reisen.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jessica\Desktop\Happiness\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7910474-7D78-4AA8-859E-9C5565418A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92666C50-35B5-4964-A4C0-76D294C7C795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="happiness + reisen" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Land</t>
   </si>
@@ -122,13 +133,19 @@
   </si>
   <si>
     <t>Malta</t>
+  </si>
+  <si>
+    <t>bevölkerung</t>
+  </si>
+  <si>
+    <t>durch. Reisen pro Person</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +282,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -611,10 +635,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -970,20 +996,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="92" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD43"/>
+    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -996,8 +1024,14 @@
       <c r="D1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1007,11 +1041,18 @@
       <c r="C2">
         <v>2018</v>
       </c>
-      <c r="D2" s="1">
-        <v>7118364334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D2" s="2">
+        <v>71.183643340000003</v>
+      </c>
+      <c r="E2" s="3">
+        <v>83093000</v>
+      </c>
+      <c r="F2">
+        <f>(B2*1000000)/E2</f>
+        <v>3.2240982994957452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1021,11 +1062,12 @@
       <c r="C3">
         <v>2018</v>
       </c>
-      <c r="D3" s="1">
-        <v>65903568</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D3" s="2">
+        <v>65.903568000000007</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1035,11 +1077,12 @@
       <c r="C4">
         <v>2018</v>
       </c>
-      <c r="D4" s="1">
-        <v>7233445168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D4" s="2">
+        <v>72.334451680000001</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1049,11 +1092,12 @@
       <c r="C5">
         <v>2018</v>
       </c>
-      <c r="D5" s="1">
-        <v>6513370991</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D5" s="2">
+        <v>65.133709909999993</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1063,11 +1107,12 @@
       <c r="C6">
         <v>2018</v>
       </c>
-      <c r="D6" s="1">
-        <v>6516526699</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D6" s="2">
+        <v>65.165266990000006</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1077,11 +1122,12 @@
       <c r="C7">
         <v>2018</v>
       </c>
-      <c r="D7" s="1">
-        <v>6111485004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D7" s="2">
+        <v>61.11485004</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1091,11 +1137,12 @@
       <c r="C8">
         <v>2018</v>
       </c>
-      <c r="D8" s="1">
-        <v>7374792099</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D8" s="2">
+        <v>73.747920989999997</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1105,11 +1152,12 @@
       <c r="C9">
         <v>2018</v>
       </c>
-      <c r="D9" s="1">
-        <v>7463097095</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D9" s="2">
+        <v>74.630970950000005</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1119,11 +1167,18 @@
       <c r="C10">
         <v>2018</v>
       </c>
-      <c r="D10" s="1">
-        <v>785810709</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D10" s="2">
+        <v>78.5810709</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5522000</v>
+      </c>
+      <c r="F10">
+        <f>(B10*1000000)/E10</f>
+        <v>6.990220934444042</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1133,25 +1188,27 @@
       <c r="C11">
         <v>2018</v>
       </c>
-      <c r="D11" s="1">
-        <v>7034165382</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D11" s="2">
+        <v>70.341653820000005</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>27.1</v>
       </c>
       <c r="C12">
         <v>2018</v>
       </c>
-      <c r="D12" s="1">
-        <v>7444262028</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D12" s="2">
+        <v>74.44262028</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1161,11 +1218,12 @@
       <c r="C13">
         <v>2018</v>
       </c>
-      <c r="D13" s="1">
-        <v>7396001816</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D13" s="2">
+        <v>73.960018160000004</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1175,11 +1233,18 @@
       <c r="C14">
         <v>2018</v>
       </c>
-      <c r="D14" s="1">
-        <v>7508586884</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D14" s="2">
+        <v>75.085868840000003</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5522000</v>
+      </c>
+      <c r="F14">
+        <f>(B14*1000000)/E14</f>
+        <v>3.9659543643607389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1189,11 +1254,12 @@
       <c r="C15">
         <v>2018</v>
       </c>
-      <c r="D15" s="1">
-        <v>5935770988</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D15" s="2">
+        <v>59.357709880000002</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1203,11 +1269,18 @@
       <c r="C16">
         <v>2018</v>
       </c>
-      <c r="D16" s="1">
-        <v>7648785591</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D16" s="2">
+        <v>76.487855909999993</v>
+      </c>
+      <c r="E16" s="3">
+        <v>5814000</v>
+      </c>
+      <c r="F16">
+        <f>(B16*1000000)/E16</f>
+        <v>3.2335741314069488</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1217,11 +1290,12 @@
       <c r="C17">
         <v>2018</v>
       </c>
-      <c r="D17" s="1">
-        <v>6150878906</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D17" s="2">
+        <v>61.508789059999998</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1231,11 +1305,12 @@
       <c r="C18">
         <v>2018</v>
       </c>
-      <c r="D18" s="1">
-        <v>5919822693</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D18" s="2">
+        <v>59.198226929999997</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1245,11 +1320,12 @@
       <c r="C19">
         <v>2018</v>
       </c>
-      <c r="D19" s="1">
-        <v>689217186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D19" s="2">
+        <v>68.921718600000005</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1259,163 +1335,196 @@
       <c r="C20">
         <v>2018</v>
       </c>
-      <c r="D20" s="1">
-        <v>6962335587</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D20" s="2">
+        <v>69.623355869999997</v>
+      </c>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>12.4</v>
       </c>
       <c r="C21">
         <v>2018</v>
       </c>
-      <c r="D21" s="1">
-        <v>623511076</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D21" s="2">
+        <v>62.351107599999999</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>6.6</v>
       </c>
       <c r="C22">
         <v>2018</v>
       </c>
-      <c r="D22" s="1">
-        <v>540928936</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D22" s="2">
+        <v>54.092893599999996</v>
+      </c>
+      <c r="E22" s="3">
+        <v>10717000</v>
+      </c>
+      <c r="F22">
+        <f>(B22*1000000)/E22</f>
+        <v>0.61584398619016512</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>6.5</v>
       </c>
       <c r="C23">
         <v>2018</v>
       </c>
-      <c r="D23" s="1">
-        <v>6091302395</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D23" s="2">
+        <v>60.913023950000003</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>5.3</v>
       </c>
       <c r="C24">
         <v>2018</v>
       </c>
-      <c r="D24" s="1">
-        <v>5536271095</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D24" s="2">
+        <v>55.36271095</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4065000</v>
+      </c>
+      <c r="F24">
+        <f>(B24*1000000)/E24</f>
+        <v>1.3038130381303814</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>5.2</v>
       </c>
       <c r="C25">
         <v>2018</v>
       </c>
-      <c r="D25" s="1">
-        <v>6249419212</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D25" s="2">
+        <v>62.494192120000001</v>
+      </c>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>5.0999999999999996</v>
       </c>
       <c r="C26">
         <v>2018</v>
       </c>
-      <c r="D26" s="1">
-        <v>5098813534</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D26" s="2">
+        <v>50.988135339999999</v>
+      </c>
+      <c r="E26" s="3">
+        <v>6976000</v>
+      </c>
+      <c r="F26">
+        <f>(B26*1000000)/E26</f>
+        <v>0.73107798165137616</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>4.9000000000000004</v>
       </c>
       <c r="C27">
         <v>2018</v>
       </c>
-      <c r="D27" s="1">
-        <v>6308878899</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D27" s="2">
+        <v>63.088788989999998</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>4</v>
       </c>
       <c r="C28">
         <v>2018</v>
       </c>
-      <c r="D28" s="1">
-        <v>5901154041</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D28" s="2">
+        <v>59.011540410000002</v>
+      </c>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>3</v>
       </c>
       <c r="C29">
         <v>2018</v>
       </c>
-      <c r="D29" s="1">
-        <v>6276443005</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D29" s="2">
+        <v>62.764430050000001</v>
+      </c>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>2.6</v>
       </c>
       <c r="C30">
         <v>2018</v>
       </c>
-      <c r="D30" s="1">
-        <v>7242630959</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D30" s="2">
+        <v>72.426309590000002</v>
+      </c>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>0.9</v>
       </c>
       <c r="C31">
         <v>2018</v>
       </c>
-      <c r="D31" s="1">
-        <v>6909710884</v>
-      </c>
+      <c r="D31" s="2">
+        <v>69.097108840000004</v>
+      </c>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E32" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/datasets/happiness + reisen.xlsx
+++ b/datasets/happiness + reisen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jessica\Desktop\Happiness\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92666C50-35B5-4964-A4C0-76D294C7C795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16A58F7-F1B0-4C22-AFCA-88DC0A3818AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="2760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="happiness + reisen" sheetId="1" r:id="rId1"/>
@@ -138,14 +138,18 @@
     <t>bevölkerung</t>
   </si>
   <si>
-    <t>durch. Reisen pro Person</t>
+    <t>reisen/person</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +293,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -591,7 +611,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -634,15 +654,23 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -677,6 +705,7 @@
     <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="42" xr:uid="{4A4CE8FD-5E50-4848-BA95-D49C910D4290}"/>
     <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -996,42 +1025,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="18.5">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1044,15 +1075,16 @@
       <c r="D2" s="2">
         <v>71.183643340000003</v>
       </c>
-      <c r="E2" s="3">
-        <v>83093000</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="8">
+        <v>83019200</v>
+      </c>
+      <c r="F2" s="11">
         <f>(B2*1000000)/E2</f>
-        <v>3.2240982994957452</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3.2269643648698128</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1065,9 +1097,16 @@
       <c r="D3" s="2">
         <v>65.903568000000007</v>
       </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E3" s="9">
+        <v>67028000</v>
+      </c>
+      <c r="F3" s="11">
+        <f t="shared" ref="F3:F31" si="0">(B3*1000000)/E3</f>
+        <v>3.2851942471802831</v>
+      </c>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1080,9 +1119,16 @@
       <c r="D4" s="2">
         <v>72.334451680000001</v>
       </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E4" s="10">
+        <v>66647100</v>
+      </c>
+      <c r="F4" s="11">
+        <f t="shared" si="0"/>
+        <v>2.3918520085645136</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1095,9 +1141,16 @@
       <c r="D5" s="2">
         <v>65.133709909999993</v>
       </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E5" s="10">
+        <v>46934600</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="shared" si="0"/>
+        <v>3.3322964294997721</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1110,9 +1163,16 @@
       <c r="D6" s="2">
         <v>65.165266990000006</v>
       </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E6" s="10">
+        <v>60359500</v>
+      </c>
+      <c r="F6" s="11">
+        <f t="shared" si="0"/>
+        <v>1.129896702258965</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1125,9 +1185,16 @@
       <c r="D7" s="2">
         <v>61.11485004</v>
       </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E7" s="10">
+        <v>37972800</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" si="0"/>
+        <v>1.5932456916529727</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1140,9 +1207,16 @@
       <c r="D8" s="2">
         <v>73.747920989999997</v>
       </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E8" s="10">
+        <v>10230200</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" si="0"/>
+        <v>5.3273640789036385</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1155,9 +1229,16 @@
       <c r="D9" s="2">
         <v>74.630970950000005</v>
       </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E9" s="10">
+        <v>17282200</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5806899584543634</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1170,15 +1251,16 @@
       <c r="D10" s="2">
         <v>78.5810709</v>
       </c>
-      <c r="E10" s="3">
-        <v>5522000</v>
-      </c>
-      <c r="F10">
-        <f>(B10*1000000)/E10</f>
-        <v>6.990220934444042</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E10" s="8">
+        <v>5517900</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="0"/>
+        <v>6.9954149223436453</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1191,9 +1273,16 @@
       <c r="D11" s="2">
         <v>70.341653820000005</v>
       </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E11" s="10">
+        <v>10649800</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="0"/>
+        <v>3.2488873030479444</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1206,9 +1295,14 @@
       <c r="D12" s="2">
         <v>74.44262028</v>
       </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E12" s="10"/>
+      <c r="F12" s="11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1221,9 +1315,16 @@
       <c r="D13" s="2">
         <v>73.960018160000004</v>
       </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E13" s="10">
+        <v>8858800</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="0"/>
+        <v>2.7543233846570643</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1236,15 +1337,16 @@
       <c r="D14" s="2">
         <v>75.085868840000003</v>
       </c>
-      <c r="E14" s="3">
-        <v>5522000</v>
-      </c>
-      <c r="F14">
-        <f>(B14*1000000)/E14</f>
-        <v>3.9659543643607389</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E14" s="8">
+        <v>8542300</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5637123491331373</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1257,9 +1359,16 @@
       <c r="D15" s="2">
         <v>59.357709880000002</v>
       </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E15" s="10">
+        <v>9772800</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="0"/>
+        <v>1.9646365422396856</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1272,15 +1381,16 @@
       <c r="D16" s="2">
         <v>76.487855909999993</v>
       </c>
-      <c r="E16" s="3">
-        <v>5814000</v>
-      </c>
-      <c r="F16">
-        <f>(B16*1000000)/E16</f>
-        <v>3.2335741314069488</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E16" s="8">
+        <v>5806100</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" si="0"/>
+        <v>3.2379738550834469</v>
+      </c>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1293,9 +1403,16 @@
       <c r="D17" s="2">
         <v>61.508789059999998</v>
       </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E17" s="10">
+        <v>19401700</v>
+      </c>
+      <c r="F17" s="11">
+        <f t="shared" si="0"/>
+        <v>0.94837050361566255</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1308,9 +1425,16 @@
       <c r="D18" s="2">
         <v>59.198226929999997</v>
       </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E18" s="10">
+        <v>10276600</v>
+      </c>
+      <c r="F18" s="11">
+        <f t="shared" si="0"/>
+        <v>1.7807446042465407</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1323,9 +1447,16 @@
       <c r="D19" s="2">
         <v>68.921718600000005</v>
       </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E19" s="10">
+        <v>11467900</v>
+      </c>
+      <c r="F19" s="11">
+        <f t="shared" si="0"/>
+        <v>1.4736787031627412</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1338,9 +1469,16 @@
       <c r="D20" s="2">
         <v>69.623355869999997</v>
       </c>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E20" s="10">
+        <v>4904200</v>
+      </c>
+      <c r="F20" s="11">
+        <f t="shared" si="0"/>
+        <v>3.2421190000407814</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1353,9 +1491,16 @@
       <c r="D21" s="2">
         <v>62.351107599999999</v>
       </c>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E21" s="10">
+        <v>5450400</v>
+      </c>
+      <c r="F21" s="11">
+        <f t="shared" si="0"/>
+        <v>2.275062380742698</v>
+      </c>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1368,15 +1513,16 @@
       <c r="D22" s="2">
         <v>54.092893599999996</v>
       </c>
-      <c r="E22" s="3">
-        <v>10717000</v>
-      </c>
-      <c r="F22">
-        <f>(B22*1000000)/E22</f>
-        <v>0.61584398619016512</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E22" s="8">
+        <v>10722300</v>
+      </c>
+      <c r="F22" s="11">
+        <f t="shared" si="0"/>
+        <v>0.61553957639685519</v>
+      </c>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1389,9 +1535,16 @@
       <c r="D23" s="2">
         <v>60.913023950000003</v>
       </c>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E23" s="10">
+        <v>1324800</v>
+      </c>
+      <c r="F23" s="11">
+        <f t="shared" si="0"/>
+        <v>4.9064009661835746</v>
+      </c>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1404,15 +1557,16 @@
       <c r="D24" s="2">
         <v>55.36271095</v>
       </c>
-      <c r="E24" s="3">
-        <v>4065000</v>
-      </c>
-      <c r="F24">
-        <f>(B24*1000000)/E24</f>
-        <v>1.3038130381303814</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E24" s="8">
+        <v>4076200</v>
+      </c>
+      <c r="F24" s="11">
+        <f t="shared" si="0"/>
+        <v>1.3002306069378342</v>
+      </c>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1425,9 +1579,16 @@
       <c r="D25" s="2">
         <v>62.494192120000001</v>
       </c>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E25" s="10">
+        <v>2080900</v>
+      </c>
+      <c r="F25" s="11">
+        <f t="shared" si="0"/>
+        <v>2.4989187370849151</v>
+      </c>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1440,15 +1601,16 @@
       <c r="D26" s="2">
         <v>50.988135339999999</v>
       </c>
-      <c r="E26" s="3">
-        <v>6976000</v>
-      </c>
-      <c r="F26">
-        <f>(B26*1000000)/E26</f>
-        <v>0.73107798165137616</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E26" s="8">
+        <v>7000000</v>
+      </c>
+      <c r="F26" s="11">
+        <f t="shared" si="0"/>
+        <v>0.72857142857142854</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1461,9 +1623,16 @@
       <c r="D27" s="2">
         <v>63.088788989999998</v>
       </c>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E27" s="10">
+        <v>2794200</v>
+      </c>
+      <c r="F27" s="11">
+        <f t="shared" si="0"/>
+        <v>1.753632524515067</v>
+      </c>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1476,9 +1645,16 @@
       <c r="D28" s="2">
         <v>59.011540410000002</v>
       </c>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E28" s="10">
+        <v>1920000</v>
+      </c>
+      <c r="F28" s="11">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1491,9 +1667,16 @@
       <c r="D29" s="2">
         <v>62.764430050000001</v>
       </c>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E29" s="10">
+        <v>875900</v>
+      </c>
+      <c r="F29" s="11">
+        <f t="shared" si="0"/>
+        <v>3.4250485215207216</v>
+      </c>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1506,9 +1689,16 @@
       <c r="D30" s="2">
         <v>72.426309590000002</v>
       </c>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E30" s="10">
+        <v>613900</v>
+      </c>
+      <c r="F30" s="11">
+        <f t="shared" si="0"/>
+        <v>4.2352174621273821</v>
+      </c>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1521,10 +1711,17 @@
       <c r="D31" s="2">
         <v>69.097108840000004</v>
       </c>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E32" s="4"/>
+      <c r="E31" s="10">
+        <v>493600</v>
+      </c>
+      <c r="F31" s="11">
+        <f t="shared" si="0"/>
+        <v>1.8233387358184765</v>
+      </c>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="E32" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
